--- a/DOCUMENTOS/ARTEFACTOS/Registro de Interesados.xlsx
+++ b/DOCUMENTOS/ARTEFACTOS/Registro de Interesados.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BS3T+UYcLnDHB6cwd+olabwrekKhH57EMfVYCOMXF8Y="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rfU87TLlvMQK/QXtsr97p4+p0knYH4sh8XiawYwFokk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>REGISTRO DE INTERESADOS DEL PROYECTO</t>
   </si>
@@ -93,7 +93,7 @@
     <t>I01</t>
   </si>
   <si>
-    <t>Armando Carrillo</t>
+    <t>Armando Moises Carrillo Fernandez</t>
   </si>
   <si>
     <t>Director EAO Odontologia</t>
@@ -193,75 +193,6 @@
   </si>
   <si>
     <t>Historias clínicas, que el sistema sea facil de usar</t>
-  </si>
-  <si>
-    <t>I08</t>
-  </si>
-  <si>
-    <t>Edgar Espinoza Davirán</t>
-  </si>
-  <si>
-    <t>San Francisco Clínica Dental</t>
-  </si>
-  <si>
-    <t>edgarespinoza15@gmail.com</t>
-  </si>
-  <si>
-    <t>Odontólogo</t>
-  </si>
-  <si>
-    <t>Colaborador Externo</t>
-  </si>
-  <si>
-    <t>I09</t>
-  </si>
-  <si>
-    <t>Magy Sedano Cabrera</t>
-  </si>
-  <si>
-    <t>Odontopediatría</t>
-  </si>
-  <si>
-    <t>Clínica Ortega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dra.magy_odp_ortodoncia@hotmail.com </t>
-  </si>
-  <si>
-    <t>Integración con imagenes médicas</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Especialista en Odontopediatría</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>Edith Fano Rivas</t>
-  </si>
-  <si>
-    <t>COA (Centro Odontológico Americano) y Clínica Arte Dental</t>
-  </si>
-  <si>
-    <t>katherine05fano02@hotmail.com</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>Erick Retiz Avila</t>
-  </si>
-  <si>
-    <t>Dental brakets N&amp;E</t>
-  </si>
-  <si>
-    <t>retizavilaerick@gmail.com</t>
-  </si>
-  <si>
-    <t>Historias clínicas ordenadas y de fácil acceso en la búsqueda</t>
   </si>
   <si>
     <t>I12</t>
@@ -487,10 +418,10 @@
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,7 +770,7 @@
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -961,7 +892,7 @@
       <c r="F13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="23">
         <v>9.6486309E8</v>
       </c>
       <c r="H13" s="21"/>
@@ -1051,16 +982,16 @@
         <v>46</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="22">
+        <v>9.51456867E8</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="G16" s="21">
-        <v>9.64647092E8</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>52</v>
@@ -1068,149 +999,15 @@
       <c r="J16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="21" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="22">
-        <v>9.64305017E8</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="22">
-        <v>9.23883996E8</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="22">
-        <v>9.33935615E8</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="23">
-        <v>9.51456867E8</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
@@ -2186,10 +1983,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B3:C3"/>
